--- a/LichGacThi.xlsx
+++ b/LichGacThi.xlsx
@@ -753,7 +753,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="20.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="25.710625" style="0" customWidth="1"/>
     <x:col min="2" max="200" width="9.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -3692,7 +3692,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B17" s="5">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
         <x:v>49</x:v>
@@ -3719,7 +3719,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="K17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L17" s="5" t="s">
         <x:v>49</x:v>
@@ -3740,7 +3740,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="R17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="S17" s="5" t="s">
         <x:v>49</x:v>
@@ -3755,7 +3755,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="W17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="X17" s="5" t="s">
         <x:v>49</x:v>
@@ -3764,7 +3764,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Z17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AA17" s="5" t="s">
         <x:v>49</x:v>
@@ -3788,7 +3788,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AH17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AI17" s="5" t="s">
         <x:v>49</x:v>
@@ -3884,10 +3884,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BN17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BO17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BP17" s="5" t="s">
         <x:v>49</x:v>
@@ -3917,13 +3917,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BY17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BZ17" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="CA17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CB17" s="5" t="s">
         <x:v>49</x:v>
@@ -3932,7 +3932,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CD17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CE17" s="5" t="s">
         <x:v>49</x:v>
@@ -3947,10 +3947,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CI17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CJ17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CK17" s="5" t="s">
         <x:v>49</x:v>
@@ -4064,13 +4064,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DV17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DW17" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DX17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DY17" s="5" t="s">
         <x:v>49</x:v>
@@ -4112,7 +4112,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EL17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EM17" s="5" t="s">
         <x:v>49</x:v>
@@ -4133,7 +4133,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ES17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="ET17" s="5" t="s">
         <x:v>49</x:v>
@@ -4160,10 +4160,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FB17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FC17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FD17" s="5" t="s">
         <x:v>49</x:v>
@@ -4208,7 +4208,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FR17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FS17" s="5" t="s">
         <x:v>49</x:v>
@@ -4229,7 +4229,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FY17" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FZ17" s="5" t="s">
         <x:v>49</x:v>
@@ -4259,19 +4259,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GI17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GJ17" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="GK17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GL17" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="GM17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GN17" s="5" t="s">
         <x:v>49</x:v>
@@ -4297,19 +4297,19 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B18" s="5">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E18" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="F18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G18" s="5" t="s">
         <x:v>49</x:v>
@@ -4333,7 +4333,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O18" s="5" t="s">
         <x:v>50</x:v>
@@ -4354,7 +4354,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="U18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="V18" s="5" t="s">
         <x:v>49</x:v>
@@ -4462,16 +4462,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BE18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BF18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BG18" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BH18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BI18" s="5" t="s">
         <x:v>49</x:v>
@@ -4483,7 +4483,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BL18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BM18" s="5" t="s">
         <x:v>49</x:v>
@@ -4501,7 +4501,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BR18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BS18" s="5" t="s">
         <x:v>49</x:v>
@@ -4522,7 +4522,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BY18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BZ18" s="5" t="s">
         <x:v>49</x:v>
@@ -4552,7 +4552,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CI18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CJ18" s="5" t="s">
         <x:v>49</x:v>
@@ -4570,7 +4570,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CO18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CP18" s="5" t="s">
         <x:v>49</x:v>
@@ -4591,7 +4591,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CV18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CW18" s="5" t="s">
         <x:v>49</x:v>
@@ -4600,7 +4600,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CY18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CZ18" s="5" t="s">
         <x:v>49</x:v>
@@ -4642,7 +4642,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DM18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DN18" s="5" t="s">
         <x:v>49</x:v>
@@ -4651,7 +4651,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DP18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DQ18" s="5" t="s">
         <x:v>49</x:v>
@@ -4660,7 +4660,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DS18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DT18" s="5" t="s">
         <x:v>49</x:v>
@@ -4669,7 +4669,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DV18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DW18" s="5" t="s">
         <x:v>49</x:v>
@@ -4714,7 +4714,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EK18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EL18" s="5" t="s">
         <x:v>50</x:v>
@@ -4723,16 +4723,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EN18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EO18" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EP18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EQ18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="ER18" s="5" t="s">
         <x:v>49</x:v>
@@ -4747,7 +4747,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EV18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EW18" s="5" t="s">
         <x:v>49</x:v>
@@ -4834,7 +4834,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FY18" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FZ18" s="5" t="s">
         <x:v>49</x:v>
@@ -4902,7 +4902,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B19" s="5">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
         <x:v>49</x:v>
@@ -4935,7 +4935,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="M19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N19" s="5" t="s">
         <x:v>49</x:v>
@@ -4998,19 +4998,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AH19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AI19" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AJ19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AK19" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AL19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AM19" s="5" t="s">
         <x:v>49</x:v>
@@ -5022,7 +5022,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AP19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AQ19" s="5" t="s">
         <x:v>49</x:v>
@@ -5055,7 +5055,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BA19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BB19" s="5" t="s">
         <x:v>49</x:v>
@@ -5067,7 +5067,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BE19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BF19" s="5" t="s">
         <x:v>49</x:v>
@@ -5094,7 +5094,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BN19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BO19" s="5" t="s">
         <x:v>49</x:v>
@@ -5112,10 +5112,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BT19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BU19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BV19" s="5" t="s">
         <x:v>49</x:v>
@@ -5127,7 +5127,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BY19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BZ19" s="5" t="s">
         <x:v>49</x:v>
@@ -5136,7 +5136,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CB19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CC19" s="5" t="s">
         <x:v>49</x:v>
@@ -5148,7 +5148,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CF19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CG19" s="5" t="s">
         <x:v>49</x:v>
@@ -5190,7 +5190,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CT19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CU19" s="5" t="s">
         <x:v>49</x:v>
@@ -5208,7 +5208,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CZ19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DA19" s="5" t="s">
         <x:v>49</x:v>
@@ -5217,7 +5217,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DC19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DD19" s="5" t="s">
         <x:v>49</x:v>
@@ -5226,7 +5226,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DF19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DG19" s="5" t="s">
         <x:v>50</x:v>
@@ -5238,7 +5238,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DJ19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DK19" s="5" t="s">
         <x:v>49</x:v>
@@ -5250,7 +5250,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DN19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DO19" s="5" t="s">
         <x:v>49</x:v>
@@ -5262,10 +5262,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DR19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DS19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DT19" s="5" t="s">
         <x:v>50</x:v>
@@ -5280,7 +5280,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DX19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DY19" s="5" t="s">
         <x:v>49</x:v>
@@ -5298,7 +5298,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ED19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EE19" s="5" t="s">
         <x:v>49</x:v>
@@ -5310,7 +5310,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EH19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EI19" s="5" t="s">
         <x:v>49</x:v>
@@ -5325,7 +5325,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EM19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EN19" s="5" t="s">
         <x:v>49</x:v>
@@ -5343,7 +5343,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ES19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="ET19" s="5" t="s">
         <x:v>49</x:v>
@@ -5388,13 +5388,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FH19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FI19" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FJ19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FK19" s="5" t="s">
         <x:v>49</x:v>
@@ -5424,7 +5424,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FT19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FU19" s="5" t="s">
         <x:v>49</x:v>
@@ -5448,7 +5448,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GB19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GC19" s="5" t="s">
         <x:v>49</x:v>
@@ -5469,10 +5469,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GI19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GJ19" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GK19" s="5" t="s">
         <x:v>49</x:v>
@@ -5481,7 +5481,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GM19" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GN19" s="5" t="s">
         <x:v>49</x:v>
@@ -5510,7 +5510,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D20" s="5" t="s">
         <x:v>49</x:v>
@@ -5519,7 +5519,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G20" s="5" t="s">
         <x:v>49</x:v>
@@ -5543,7 +5543,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O20" s="5" t="s">
         <x:v>49</x:v>
@@ -5552,13 +5552,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Q20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="R20" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="S20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="T20" s="5" t="s">
         <x:v>49</x:v>
@@ -5579,7 +5579,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Z20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AA20" s="5" t="s">
         <x:v>49</x:v>
@@ -5660,7 +5660,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="BA20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BB20" s="5" t="s">
         <x:v>49</x:v>
@@ -5690,10 +5690,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BK20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BL20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BM20" s="5" t="s">
         <x:v>49</x:v>
@@ -5708,7 +5708,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BQ20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BR20" s="5" t="s">
         <x:v>49</x:v>
@@ -5729,7 +5729,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BX20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BY20" s="5" t="s">
         <x:v>49</x:v>
@@ -5777,7 +5777,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CN20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CO20" s="5" t="s">
         <x:v>49</x:v>
@@ -5786,7 +5786,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CQ20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CR20" s="5" t="s">
         <x:v>49</x:v>
@@ -5801,7 +5801,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CV20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CW20" s="5" t="s">
         <x:v>49</x:v>
@@ -5846,7 +5846,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DK20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DL20" s="5" t="s">
         <x:v>49</x:v>
@@ -5861,7 +5861,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DP20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DQ20" s="5" t="s">
         <x:v>49</x:v>
@@ -5879,19 +5879,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DV20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DW20" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DX20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DY20" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DZ20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EA20" s="5" t="s">
         <x:v>49</x:v>
@@ -5918,7 +5918,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EI20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EJ20" s="5" t="s">
         <x:v>49</x:v>
@@ -5969,7 +5969,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EZ20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FA20" s="5" t="s">
         <x:v>49</x:v>
@@ -6014,13 +6014,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FO20" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FP20" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FQ20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FR20" s="5" t="s">
         <x:v>49</x:v>
@@ -6065,7 +6065,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GF20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GG20" s="5" t="s">
         <x:v>50</x:v>
@@ -6077,7 +6077,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GJ20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GK20" s="5" t="s">
         <x:v>49</x:v>
@@ -6086,7 +6086,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GM20" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GN20" s="5" t="s">
         <x:v>49</x:v>
@@ -6112,7 +6112,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B21" s="5">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="5" t="s">
         <x:v>49</x:v>
@@ -6145,7 +6145,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="M21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N21" s="5" t="s">
         <x:v>49</x:v>
@@ -6160,16 +6160,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="R21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="S21" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="T21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="U21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="V21" s="5" t="s">
         <x:v>49</x:v>
@@ -6256,19 +6256,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AX21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AY21" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AZ21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BA21" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BB21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BC21" s="5" t="s">
         <x:v>49</x:v>
@@ -6307,7 +6307,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BO21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BP21" s="5" t="s">
         <x:v>49</x:v>
@@ -6346,7 +6346,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CB21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CC21" s="5" t="s">
         <x:v>49</x:v>
@@ -6388,7 +6388,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CP21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CQ21" s="5" t="s">
         <x:v>49</x:v>
@@ -6397,13 +6397,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="CS21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CT21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CU21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CV21" s="5" t="s">
         <x:v>49</x:v>
@@ -6448,7 +6448,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DJ21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DK21" s="5" t="s">
         <x:v>49</x:v>
@@ -6457,7 +6457,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DM21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DN21" s="5" t="s">
         <x:v>49</x:v>
@@ -6475,7 +6475,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DS21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DT21" s="5" t="s">
         <x:v>49</x:v>
@@ -6484,7 +6484,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DV21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DW21" s="5" t="s">
         <x:v>49</x:v>
@@ -6493,7 +6493,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DY21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DZ21" s="5" t="s">
         <x:v>49</x:v>
@@ -6505,7 +6505,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EC21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="ED21" s="5" t="s">
         <x:v>49</x:v>
@@ -6520,7 +6520,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EH21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EI21" s="5" t="s">
         <x:v>49</x:v>
@@ -6544,10 +6544,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EP21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EQ21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="ER21" s="5" t="s">
         <x:v>49</x:v>
@@ -6565,7 +6565,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EW21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EX21" s="5" t="s">
         <x:v>49</x:v>
@@ -6586,7 +6586,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FD21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FE21" s="5" t="s">
         <x:v>49</x:v>
@@ -6595,28 +6595,28 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FG21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FH21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FI21" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FJ21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FK21" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FL21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FM21" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FN21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FO21" s="5" t="s">
         <x:v>49</x:v>
@@ -6628,7 +6628,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FR21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FS21" s="5" t="s">
         <x:v>49</x:v>
@@ -6652,10 +6652,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FZ21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GA21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GB21" s="5" t="s">
         <x:v>49</x:v>
@@ -6676,7 +6676,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GH21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GI21" s="5" t="s">
         <x:v>49</x:v>
@@ -6694,7 +6694,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GN21" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GO21" s="5" t="s">
         <x:v>49</x:v>
@@ -6703,7 +6703,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GQ21" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GR21" s="5" t="s">
         <x:v>49</x:v>
@@ -6780,7 +6780,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="W22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="X22" s="5" t="s">
         <x:v>49</x:v>
@@ -6795,10 +6795,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="AB22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AC22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AD22" s="5" t="s">
         <x:v>49</x:v>
@@ -6870,7 +6870,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BA22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BB22" s="5" t="s">
         <x:v>49</x:v>
@@ -6888,13 +6888,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BG22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BH22" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BI22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BJ22" s="5" t="s">
         <x:v>49</x:v>
@@ -6951,7 +6951,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CB22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CC22" s="5" t="s">
         <x:v>49</x:v>
@@ -6969,7 +6969,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CH22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CI22" s="5" t="s">
         <x:v>49</x:v>
@@ -7002,7 +7002,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CS22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CT22" s="5" t="s">
         <x:v>49</x:v>
@@ -7011,7 +7011,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CV22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CW22" s="5" t="s">
         <x:v>49</x:v>
@@ -7035,10 +7035,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DD22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DE22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DF22" s="5" t="s">
         <x:v>49</x:v>
@@ -7065,7 +7065,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DN22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DO22" s="5" t="s">
         <x:v>50</x:v>
@@ -7092,7 +7092,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DW22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DX22" s="5" t="s">
         <x:v>49</x:v>
@@ -7110,13 +7110,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EC22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="ED22" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EE22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EF22" s="5" t="s">
         <x:v>49</x:v>
@@ -7143,10 +7143,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EN22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EO22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EP22" s="5" t="s">
         <x:v>49</x:v>
@@ -7212,7 +7212,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FK22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FL22" s="5" t="s">
         <x:v>49</x:v>
@@ -7224,13 +7224,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FO22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FP22" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FQ22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FR22" s="5" t="s">
         <x:v>49</x:v>
@@ -7239,13 +7239,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FT22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FU22" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FV22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FW22" s="5" t="s">
         <x:v>49</x:v>
@@ -7260,7 +7260,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GA22" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GB22" s="5" t="s">
         <x:v>49</x:v>
@@ -7284,10 +7284,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GI22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GJ22" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GK22" s="5" t="s">
         <x:v>49</x:v>
@@ -7346,7 +7346,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="J23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K23" s="5" t="s">
         <x:v>49</x:v>
@@ -7382,7 +7382,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="W23" s="5" t="s">
         <x:v>49</x:v>
@@ -7460,7 +7460,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AV23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AW23" s="5" t="s">
         <x:v>49</x:v>
@@ -7493,16 +7493,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BG23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BH23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BI23" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BJ23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BK23" s="5" t="s">
         <x:v>49</x:v>
@@ -7511,7 +7511,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BM23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BN23" s="5" t="s">
         <x:v>49</x:v>
@@ -7580,7 +7580,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CJ23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CK23" s="5" t="s">
         <x:v>49</x:v>
@@ -7607,7 +7607,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CS23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CT23" s="5" t="s">
         <x:v>49</x:v>
@@ -7622,10 +7622,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CX23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CY23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CZ23" s="5" t="s">
         <x:v>49</x:v>
@@ -7643,7 +7643,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="DE23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DF23" s="5" t="s">
         <x:v>49</x:v>
@@ -7670,10 +7670,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DN23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DO23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DP23" s="5" t="s">
         <x:v>49</x:v>
@@ -7688,7 +7688,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DT23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DU23" s="5" t="s">
         <x:v>49</x:v>
@@ -7697,7 +7697,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DW23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DX23" s="5" t="s">
         <x:v>49</x:v>
@@ -7718,7 +7718,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ED23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EE23" s="5" t="s">
         <x:v>49</x:v>
@@ -7748,7 +7748,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EN23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EO23" s="5" t="s">
         <x:v>49</x:v>
@@ -7763,13 +7763,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ES23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="ET23" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EU23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EV23" s="5" t="s">
         <x:v>50</x:v>
@@ -7778,7 +7778,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EX23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EY23" s="5" t="s">
         <x:v>49</x:v>
@@ -7832,19 +7832,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FP23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FQ23" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FR23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FS23" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FT23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FU23" s="5" t="s">
         <x:v>49</x:v>
@@ -7865,10 +7865,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GA23" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GB23" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GC23" s="5" t="s">
         <x:v>49</x:v>
@@ -7945,7 +7945,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="H24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I24" s="5" t="s">
         <x:v>49</x:v>
@@ -7954,7 +7954,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="K24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L24" s="5" t="s">
         <x:v>49</x:v>
@@ -7975,7 +7975,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="R24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="S24" s="5" t="s">
         <x:v>49</x:v>
@@ -7987,7 +7987,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="W24" s="5" t="s">
         <x:v>49</x:v>
@@ -8002,7 +8002,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AA24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AB24" s="5" t="s">
         <x:v>49</x:v>
@@ -8044,7 +8044,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AO24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AP24" s="5" t="s">
         <x:v>49</x:v>
@@ -8065,7 +8065,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="AV24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AW24" s="5" t="s">
         <x:v>49</x:v>
@@ -8080,7 +8080,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BA24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BB24" s="5" t="s">
         <x:v>49</x:v>
@@ -8116,7 +8116,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BM24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BN24" s="5" t="s">
         <x:v>49</x:v>
@@ -8137,7 +8137,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BT24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BU24" s="5" t="s">
         <x:v>49</x:v>
@@ -8146,7 +8146,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BW24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BX24" s="5" t="s">
         <x:v>49</x:v>
@@ -8161,7 +8161,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CB24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CC24" s="5" t="s">
         <x:v>49</x:v>
@@ -8206,7 +8206,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CQ24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CR24" s="5" t="s">
         <x:v>49</x:v>
@@ -8260,7 +8260,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DI24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DJ24" s="5" t="s">
         <x:v>49</x:v>
@@ -8278,7 +8278,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DO24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DP24" s="5" t="s">
         <x:v>49</x:v>
@@ -8299,7 +8299,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DV24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DW24" s="5" t="s">
         <x:v>49</x:v>
@@ -8368,7 +8368,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ES24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="ET24" s="5" t="s">
         <x:v>49</x:v>
@@ -8380,7 +8380,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EW24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EX24" s="5" t="s">
         <x:v>49</x:v>
@@ -8407,7 +8407,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FF24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FG24" s="5" t="s">
         <x:v>49</x:v>
@@ -8428,7 +8428,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FM24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FN24" s="5" t="s">
         <x:v>49</x:v>
@@ -8437,10 +8437,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FP24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FQ24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FR24" s="5" t="s">
         <x:v>49</x:v>
@@ -8491,7 +8491,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GH24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GI24" s="5" t="s">
         <x:v>49</x:v>
@@ -8503,7 +8503,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GL24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GM24" s="5" t="s">
         <x:v>49</x:v>
@@ -8521,10 +8521,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GR24" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GS24" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:201">
@@ -8532,7 +8532,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B25" s="5">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C25" s="5" t="s">
         <x:v>49</x:v>
@@ -8607,7 +8607,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AA25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AB25" s="5" t="s">
         <x:v>49</x:v>
@@ -8625,7 +8625,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AG25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AH25" s="5" t="s">
         <x:v>49</x:v>
@@ -8637,19 +8637,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AK25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AL25" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AM25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AN25" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AO25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AP25" s="5" t="s">
         <x:v>49</x:v>
@@ -8667,10 +8667,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AU25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AV25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AW25" s="5" t="s">
         <x:v>49</x:v>
@@ -8682,7 +8682,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AZ25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BA25" s="5" t="s">
         <x:v>49</x:v>
@@ -8712,7 +8712,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BJ25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BK25" s="5" t="s">
         <x:v>49</x:v>
@@ -8739,7 +8739,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BS25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BT25" s="5" t="s">
         <x:v>49</x:v>
@@ -8751,13 +8751,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BW25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BX25" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BY25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BZ25" s="5" t="s">
         <x:v>49</x:v>
@@ -8814,7 +8814,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CR25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CS25" s="5" t="s">
         <x:v>49</x:v>
@@ -8835,10 +8835,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CY25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CZ25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DA25" s="5" t="s">
         <x:v>50</x:v>
@@ -8880,10 +8880,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DN25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DO25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DP25" s="5" t="s">
         <x:v>49</x:v>
@@ -8928,7 +8928,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ED25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EE25" s="5" t="s">
         <x:v>49</x:v>
@@ -8979,16 +8979,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EU25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EV25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EW25" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EX25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EY25" s="5" t="s">
         <x:v>49</x:v>
@@ -9006,7 +9006,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FD25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FE25" s="5" t="s">
         <x:v>49</x:v>
@@ -9054,7 +9054,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FT25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FU25" s="5" t="s">
         <x:v>49</x:v>
@@ -9075,7 +9075,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GA25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GB25" s="5" t="s">
         <x:v>49</x:v>
@@ -9084,10 +9084,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GD25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GE25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GF25" s="5" t="s">
         <x:v>49</x:v>
@@ -9105,7 +9105,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GK25" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GL25" s="5" t="s">
         <x:v>49</x:v>
@@ -9149,10 +9149,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H26" s="5" t="s">
         <x:v>49</x:v>
@@ -9182,7 +9182,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Q26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="R26" s="5" t="s">
         <x:v>49</x:v>
@@ -9227,7 +9227,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AF26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AG26" s="5" t="s">
         <x:v>49</x:v>
@@ -9236,7 +9236,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AI26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AJ26" s="5" t="s">
         <x:v>49</x:v>
@@ -9290,7 +9290,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BA26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BB26" s="5" t="s">
         <x:v>49</x:v>
@@ -9329,7 +9329,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BN26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BO26" s="5" t="s">
         <x:v>49</x:v>
@@ -9347,13 +9347,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BT26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BU26" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BV26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BW26" s="5" t="s">
         <x:v>49</x:v>
@@ -9371,7 +9371,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CB26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CC26" s="5" t="s">
         <x:v>49</x:v>
@@ -9449,7 +9449,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DB26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DC26" s="5" t="s">
         <x:v>50</x:v>
@@ -9491,7 +9491,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DP26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DQ26" s="5" t="s">
         <x:v>49</x:v>
@@ -9527,7 +9527,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EB26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EC26" s="5" t="s">
         <x:v>49</x:v>
@@ -9578,7 +9578,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ES26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="ET26" s="5" t="s">
         <x:v>49</x:v>
@@ -9593,7 +9593,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EX26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EY26" s="5" t="s">
         <x:v>49</x:v>
@@ -9668,16 +9668,16 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="FW26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FX26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FY26" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FZ26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GA26" s="5" t="s">
         <x:v>49</x:v>
@@ -9713,16 +9713,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GL26" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GM26" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="GN26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GO26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GP26" s="5" t="s">
         <x:v>49</x:v>
@@ -9734,7 +9734,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GS26" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:201">
@@ -9811,7 +9811,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Y27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Z27" s="5" t="s">
         <x:v>49</x:v>
@@ -9823,7 +9823,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AC27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AD27" s="5" t="s">
         <x:v>49</x:v>
@@ -9838,7 +9838,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AH27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AI27" s="5" t="s">
         <x:v>49</x:v>
@@ -9868,7 +9868,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AR27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AS27" s="5" t="s">
         <x:v>49</x:v>
@@ -9898,13 +9898,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BB27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BC27" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BD27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BE27" s="5" t="s">
         <x:v>49</x:v>
@@ -9952,7 +9952,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BT27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BU27" s="5" t="s">
         <x:v>49</x:v>
@@ -9976,13 +9976,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CB27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CC27" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="CD27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CE27" s="5" t="s">
         <x:v>49</x:v>
@@ -10009,7 +10009,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CM27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CN27" s="5" t="s">
         <x:v>49</x:v>
@@ -10024,7 +10024,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CR27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CS27" s="5" t="s">
         <x:v>50</x:v>
@@ -10045,7 +10045,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CY27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CZ27" s="5" t="s">
         <x:v>49</x:v>
@@ -10075,10 +10075,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DI27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DJ27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DK27" s="5" t="s">
         <x:v>49</x:v>
@@ -10087,7 +10087,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DM27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DN27" s="5" t="s">
         <x:v>49</x:v>
@@ -10111,13 +10111,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DU27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DV27" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DW27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DX27" s="5" t="s">
         <x:v>49</x:v>
@@ -10126,7 +10126,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DZ27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EA27" s="5" t="s">
         <x:v>49</x:v>
@@ -10153,7 +10153,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EI27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EJ27" s="5" t="s">
         <x:v>49</x:v>
@@ -10171,7 +10171,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EO27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EP27" s="5" t="s">
         <x:v>49</x:v>
@@ -10216,7 +10216,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FD27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FE27" s="5" t="s">
         <x:v>49</x:v>
@@ -10234,7 +10234,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FJ27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FK27" s="5" t="s">
         <x:v>49</x:v>
@@ -10243,10 +10243,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FM27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FN27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FO27" s="5" t="s">
         <x:v>49</x:v>
@@ -10288,13 +10288,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GB27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GC27" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="GD27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GE27" s="5" t="s">
         <x:v>49</x:v>
@@ -10318,13 +10318,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GL27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GM27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GN27" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GO27" s="5" t="s">
         <x:v>49</x:v>
@@ -10336,7 +10336,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="GR27" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GS27" s="5" t="s">
         <x:v>49</x:v>
@@ -10347,7 +10347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B28" s="5">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C28" s="5" t="s">
         <x:v>49</x:v>
@@ -10386,7 +10386,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="P28" s="5" t="s">
         <x:v>49</x:v>
@@ -10413,7 +10413,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="X28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Y28" s="5" t="s">
         <x:v>49</x:v>
@@ -10440,7 +10440,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AG28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AH28" s="5" t="s">
         <x:v>49</x:v>
@@ -10464,7 +10464,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AO28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AP28" s="5" t="s">
         <x:v>49</x:v>
@@ -10482,7 +10482,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AU28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AV28" s="5" t="s">
         <x:v>49</x:v>
@@ -10503,7 +10503,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BB28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BC28" s="5" t="s">
         <x:v>49</x:v>
@@ -10536,7 +10536,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BM28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BN28" s="5" t="s">
         <x:v>49</x:v>
@@ -10551,13 +10551,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BR28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BS28" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BT28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BU28" s="5" t="s">
         <x:v>49</x:v>
@@ -10575,7 +10575,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BZ28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CA28" s="5" t="s">
         <x:v>49</x:v>
@@ -10629,7 +10629,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CR28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CS28" s="5" t="s">
         <x:v>49</x:v>
@@ -10668,13 +10668,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DE28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DF28" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DG28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DH28" s="5" t="s">
         <x:v>50</x:v>
@@ -10683,19 +10683,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DJ28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DK28" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DL28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DM28" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DN28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DO28" s="5" t="s">
         <x:v>49</x:v>
@@ -10704,7 +10704,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DQ28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DR28" s="5" t="s">
         <x:v>49</x:v>
@@ -10722,7 +10722,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DW28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DX28" s="5" t="s">
         <x:v>49</x:v>
@@ -10773,7 +10773,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EN28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EO28" s="5" t="s">
         <x:v>49</x:v>
@@ -10812,7 +10812,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FA28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FB28" s="5" t="s">
         <x:v>49</x:v>
@@ -10830,13 +10830,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FG28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FH28" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FI28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FJ28" s="5" t="s">
         <x:v>49</x:v>
@@ -10896,13 +10896,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GC28" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GD28" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="GE28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GF28" s="5" t="s">
         <x:v>49</x:v>
@@ -10926,7 +10926,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GM28" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GN28" s="5" t="s">
         <x:v>49</x:v>
@@ -10952,7 +10952,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B29" s="5">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C29" s="5" t="s">
         <x:v>49</x:v>
@@ -11000,13 +11000,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="R29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="S29" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="T29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="U29" s="5" t="s">
         <x:v>49</x:v>
@@ -11042,7 +11042,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AF29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AG29" s="5" t="s">
         <x:v>49</x:v>
@@ -11078,7 +11078,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AR29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AS29" s="5" t="s">
         <x:v>49</x:v>
@@ -11093,13 +11093,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AW29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AX29" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AY29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AZ29" s="5" t="s">
         <x:v>49</x:v>
@@ -11159,7 +11159,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BS29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BT29" s="5" t="s">
         <x:v>49</x:v>
@@ -11201,7 +11201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CG29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CH29" s="5" t="s">
         <x:v>49</x:v>
@@ -11228,7 +11228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CP29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CQ29" s="5" t="s">
         <x:v>49</x:v>
@@ -11243,7 +11243,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CU29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CV29" s="5" t="s">
         <x:v>49</x:v>
@@ -11252,13 +11252,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CX29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CY29" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="CZ29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DA29" s="5" t="s">
         <x:v>49</x:v>
@@ -11267,10 +11267,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="DC29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DD29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DE29" s="5" t="s">
         <x:v>49</x:v>
@@ -11297,13 +11297,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DM29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DN29" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DO29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DP29" s="5" t="s">
         <x:v>49</x:v>
@@ -11315,7 +11315,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DS29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DT29" s="5" t="s">
         <x:v>49</x:v>
@@ -11333,7 +11333,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DY29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DZ29" s="5" t="s">
         <x:v>49</x:v>
@@ -11348,7 +11348,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ED29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EE29" s="5" t="s">
         <x:v>49</x:v>
@@ -11387,7 +11387,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="EQ29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="ER29" s="5" t="s">
         <x:v>49</x:v>
@@ -11402,7 +11402,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EV29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EW29" s="5" t="s">
         <x:v>49</x:v>
@@ -11420,7 +11420,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FB29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FC29" s="5" t="s">
         <x:v>49</x:v>
@@ -11432,7 +11432,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FF29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FG29" s="5" t="s">
         <x:v>49</x:v>
@@ -11444,13 +11444,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FJ29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FK29" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FL29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FM29" s="5" t="s">
         <x:v>49</x:v>
@@ -11468,7 +11468,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FR29" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FS29" s="5" t="s">
         <x:v>49</x:v>
@@ -11498,7 +11498,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GB29" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GC29" s="5" t="s">
         <x:v>49</x:v>
@@ -11584,7 +11584,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="K30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L30" s="5" t="s">
         <x:v>49</x:v>
@@ -11602,7 +11602,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Q30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="R30" s="5" t="s">
         <x:v>49</x:v>
@@ -11611,7 +11611,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="T30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="U30" s="5" t="s">
         <x:v>49</x:v>
@@ -11653,10 +11653,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AH30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AI30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AJ30" s="5" t="s">
         <x:v>49</x:v>
@@ -11680,7 +11680,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AQ30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AR30" s="5" t="s">
         <x:v>49</x:v>
@@ -11701,7 +11701,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AX30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AY30" s="5" t="s">
         <x:v>49</x:v>
@@ -11761,7 +11761,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BR30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BS30" s="5" t="s">
         <x:v>49</x:v>
@@ -11785,7 +11785,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BZ30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CA30" s="5" t="s">
         <x:v>49</x:v>
@@ -11812,7 +11812,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CI30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CJ30" s="5" t="s">
         <x:v>49</x:v>
@@ -11824,7 +11824,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CM30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CN30" s="5" t="s">
         <x:v>49</x:v>
@@ -11845,7 +11845,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CT30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CU30" s="5" t="s">
         <x:v>49</x:v>
@@ -11857,7 +11857,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="CX30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CY30" s="5" t="s">
         <x:v>49</x:v>
@@ -11866,10 +11866,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DA30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DB30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DC30" s="5" t="s">
         <x:v>49</x:v>
@@ -11881,7 +11881,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DF30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DG30" s="5" t="s">
         <x:v>49</x:v>
@@ -11893,13 +11893,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DJ30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DK30" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DL30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DM30" s="5" t="s">
         <x:v>49</x:v>
@@ -11980,7 +11980,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EM30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EN30" s="5" t="s">
         <x:v>49</x:v>
@@ -12004,13 +12004,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EU30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EV30" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EW30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EX30" s="5" t="s">
         <x:v>49</x:v>
@@ -12055,7 +12055,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FL30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FM30" s="5" t="s">
         <x:v>49</x:v>
@@ -12097,19 +12097,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FZ30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GA30" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="GB30" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GC30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GD30" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GE30" s="5" t="s">
         <x:v>49</x:v>
@@ -12165,7 +12165,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D31" s="5" t="s">
         <x:v>49</x:v>
@@ -12198,10 +12198,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="P31" s="5" t="s">
         <x:v>49</x:v>
@@ -12216,7 +12216,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="T31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="U31" s="5" t="s">
         <x:v>49</x:v>
@@ -12228,7 +12228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="X31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Y31" s="5" t="s">
         <x:v>50</x:v>
@@ -12264,19 +12264,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AJ31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AK31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AL31" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AM31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AN31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AO31" s="5" t="s">
         <x:v>49</x:v>
@@ -12297,7 +12297,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AU31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AV31" s="5" t="s">
         <x:v>49</x:v>
@@ -12342,7 +12342,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BJ31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BK31" s="5" t="s">
         <x:v>49</x:v>
@@ -12390,7 +12390,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BZ31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CA31" s="5" t="s">
         <x:v>49</x:v>
@@ -12399,7 +12399,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CC31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CD31" s="5" t="s">
         <x:v>49</x:v>
@@ -12417,7 +12417,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CI31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CJ31" s="5" t="s">
         <x:v>49</x:v>
@@ -12429,7 +12429,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CM31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CN31" s="5" t="s">
         <x:v>49</x:v>
@@ -12441,7 +12441,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CQ31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CR31" s="5" t="s">
         <x:v>49</x:v>
@@ -12450,7 +12450,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CT31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CU31" s="5" t="s">
         <x:v>49</x:v>
@@ -12468,7 +12468,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CZ31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DA31" s="5" t="s">
         <x:v>49</x:v>
@@ -12522,13 +12522,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DR31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DS31" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DT31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DU31" s="5" t="s">
         <x:v>49</x:v>
@@ -12543,7 +12543,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DY31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DZ31" s="5" t="s">
         <x:v>49</x:v>
@@ -12555,7 +12555,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EC31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="ED31" s="5" t="s">
         <x:v>49</x:v>
@@ -12606,7 +12606,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ET31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EU31" s="5" t="s">
         <x:v>49</x:v>
@@ -12618,7 +12618,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EX31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EY31" s="5" t="s">
         <x:v>49</x:v>
@@ -12630,13 +12630,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="FB31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FC31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FD31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FE31" s="5" t="s">
         <x:v>49</x:v>
@@ -12660,7 +12660,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FL31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FM31" s="5" t="s">
         <x:v>49</x:v>
@@ -12690,7 +12690,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FV31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FW31" s="5" t="s">
         <x:v>49</x:v>
@@ -12699,7 +12699,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FY31" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FZ31" s="5" t="s">
         <x:v>49</x:v>
@@ -12711,10 +12711,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GC31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GD31" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GE31" s="5" t="s">
         <x:v>49</x:v>
@@ -12767,7 +12767,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B32" s="5">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="5" t="s">
         <x:v>49</x:v>
@@ -12824,7 +12824,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="U32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="V32" s="5" t="s">
         <x:v>49</x:v>
@@ -12848,7 +12848,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AC32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AD32" s="5" t="s">
         <x:v>50</x:v>
@@ -12926,7 +12926,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BC32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BD32" s="5" t="s">
         <x:v>49</x:v>
@@ -12965,7 +12965,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BP32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BQ32" s="5" t="s">
         <x:v>50</x:v>
@@ -12989,7 +12989,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BX32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BY32" s="5" t="s">
         <x:v>49</x:v>
@@ -13019,7 +13019,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CH32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CI32" s="5" t="s">
         <x:v>49</x:v>
@@ -13046,13 +13046,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CQ32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CR32" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="CS32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CT32" s="5" t="s">
         <x:v>49</x:v>
@@ -13076,7 +13076,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DA32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DB32" s="5" t="s">
         <x:v>49</x:v>
@@ -13109,13 +13109,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DL32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DM32" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DN32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DO32" s="5" t="s">
         <x:v>49</x:v>
@@ -13127,13 +13127,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DR32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DS32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DT32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DU32" s="5" t="s">
         <x:v>49</x:v>
@@ -13196,19 +13196,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EO32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EP32" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EQ32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="ER32" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="ES32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="ET32" s="5" t="s">
         <x:v>49</x:v>
@@ -13232,13 +13232,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FA32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FB32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FC32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FD32" s="5" t="s">
         <x:v>49</x:v>
@@ -13250,13 +13250,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FG32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FH32" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FI32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FJ32" s="5" t="s">
         <x:v>49</x:v>
@@ -13289,7 +13289,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FT32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FU32" s="5" t="s">
         <x:v>49</x:v>
@@ -13298,7 +13298,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="FW32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FX32" s="5" t="s">
         <x:v>49</x:v>
@@ -13319,7 +13319,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GD32" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GE32" s="5" t="s">
         <x:v>49</x:v>
@@ -13337,10 +13337,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="GJ32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GK32" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GL32" s="5" t="s">
         <x:v>49</x:v>
@@ -13474,7 +13474,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AJ33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AK33" s="5" t="s">
         <x:v>49</x:v>
@@ -13483,22 +13483,22 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AM33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AN33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AO33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AP33" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AQ33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AR33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AS33" s="5" t="s">
         <x:v>49</x:v>
@@ -13507,13 +13507,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AU33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AV33" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AW33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AX33" s="5" t="s">
         <x:v>49</x:v>
@@ -13549,7 +13549,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BI33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BJ33" s="5" t="s">
         <x:v>49</x:v>
@@ -13558,7 +13558,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BL33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BM33" s="5" t="s">
         <x:v>49</x:v>
@@ -13585,7 +13585,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BU33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BV33" s="5" t="s">
         <x:v>49</x:v>
@@ -13609,7 +13609,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CC33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CD33" s="5" t="s">
         <x:v>49</x:v>
@@ -13642,7 +13642,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CN33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CO33" s="5" t="s">
         <x:v>49</x:v>
@@ -13678,10 +13678,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CZ33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DA33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DB33" s="5" t="s">
         <x:v>49</x:v>
@@ -13696,7 +13696,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DF33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DG33" s="5" t="s">
         <x:v>49</x:v>
@@ -13735,10 +13735,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DS33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DT33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DU33" s="5" t="s">
         <x:v>49</x:v>
@@ -13750,7 +13750,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DX33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DY33" s="5" t="s">
         <x:v>49</x:v>
@@ -13768,7 +13768,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ED33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EE33" s="5" t="s">
         <x:v>49</x:v>
@@ -13783,7 +13783,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EI33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EJ33" s="5" t="s">
         <x:v>49</x:v>
@@ -13801,7 +13801,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EO33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EP33" s="5" t="s">
         <x:v>49</x:v>
@@ -13822,7 +13822,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EV33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EW33" s="5" t="s">
         <x:v>49</x:v>
@@ -13843,7 +13843,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FC33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FD33" s="5" t="s">
         <x:v>49</x:v>
@@ -13870,7 +13870,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FL33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FM33" s="5" t="s">
         <x:v>49</x:v>
@@ -13942,19 +13942,19 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="GJ33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GK33" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GL33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GM33" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="GN33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GO33" s="5" t="s">
         <x:v>49</x:v>
@@ -13963,7 +13963,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GQ33" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GR33" s="5" t="s">
         <x:v>49</x:v>
@@ -13980,7 +13980,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D34" s="5" t="s">
         <x:v>49</x:v>
@@ -14001,7 +14001,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="J34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K34" s="5" t="s">
         <x:v>49</x:v>
@@ -14022,7 +14022,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Q34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="R34" s="5" t="s">
         <x:v>49</x:v>
@@ -14046,7 +14046,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Y34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Z34" s="5" t="s">
         <x:v>49</x:v>
@@ -14055,7 +14055,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AB34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AC34" s="5" t="s">
         <x:v>49</x:v>
@@ -14067,7 +14067,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AF34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AG34" s="5" t="s">
         <x:v>49</x:v>
@@ -14103,7 +14103,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AR34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AS34" s="5" t="s">
         <x:v>49</x:v>
@@ -14124,7 +14124,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AY34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AZ34" s="5" t="s">
         <x:v>49</x:v>
@@ -14145,7 +14145,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BF34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BG34" s="5" t="s">
         <x:v>49</x:v>
@@ -14157,7 +14157,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BJ34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BK34" s="5" t="s">
         <x:v>49</x:v>
@@ -14175,7 +14175,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BP34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BQ34" s="5" t="s">
         <x:v>49</x:v>
@@ -14184,7 +14184,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BS34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BT34" s="5" t="s">
         <x:v>49</x:v>
@@ -14217,7 +14217,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CD34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CE34" s="5" t="s">
         <x:v>49</x:v>
@@ -14235,7 +14235,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CJ34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CK34" s="5" t="s">
         <x:v>49</x:v>
@@ -14259,13 +14259,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CR34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CS34" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="CT34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CU34" s="5" t="s">
         <x:v>49</x:v>
@@ -14319,7 +14319,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DL34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DM34" s="5" t="s">
         <x:v>49</x:v>
@@ -14358,7 +14358,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DY34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DZ34" s="5" t="s">
         <x:v>49</x:v>
@@ -14370,7 +14370,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EC34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="ED34" s="5" t="s">
         <x:v>49</x:v>
@@ -14388,7 +14388,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EI34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EJ34" s="5" t="s">
         <x:v>49</x:v>
@@ -14442,13 +14442,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FA34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FB34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FC34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FD34" s="5" t="s">
         <x:v>49</x:v>
@@ -14463,7 +14463,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FH34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FI34" s="5" t="s">
         <x:v>49</x:v>
@@ -14475,7 +14475,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FL34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FM34" s="5" t="s">
         <x:v>49</x:v>
@@ -14508,7 +14508,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FW34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FX34" s="5" t="s">
         <x:v>49</x:v>
@@ -14529,7 +14529,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GD34" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GE34" s="5" t="s">
         <x:v>50</x:v>
@@ -14547,13 +14547,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GJ34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GK34" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="GL34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GM34" s="5" t="s">
         <x:v>49</x:v>
@@ -14574,7 +14574,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GS34" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:201">
@@ -14612,7 +14612,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="L35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M35" s="5" t="s">
         <x:v>49</x:v>
@@ -14630,7 +14630,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="R35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="S35" s="5" t="s">
         <x:v>49</x:v>
@@ -14642,7 +14642,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="W35" s="5" t="s">
         <x:v>49</x:v>
@@ -14831,7 +14831,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CG35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CH35" s="5" t="s">
         <x:v>49</x:v>
@@ -14870,7 +14870,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CT35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CU35" s="5" t="s">
         <x:v>50</x:v>
@@ -14900,13 +14900,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DD35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DE35" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DF35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DG35" s="5" t="s">
         <x:v>49</x:v>
@@ -14918,7 +14918,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DJ35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DK35" s="5" t="s">
         <x:v>49</x:v>
@@ -14927,34 +14927,34 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DM35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DN35" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DO35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DP35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DQ35" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DR35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DS35" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DT35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DU35" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DV35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DW35" s="5" t="s">
         <x:v>49</x:v>
@@ -14963,7 +14963,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DY35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DZ35" s="5" t="s">
         <x:v>49</x:v>
@@ -15017,7 +15017,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="EQ35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="ER35" s="5" t="s">
         <x:v>49</x:v>
@@ -15044,7 +15044,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EZ35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FA35" s="5" t="s">
         <x:v>49</x:v>
@@ -15062,7 +15062,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FF35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FG35" s="5" t="s">
         <x:v>49</x:v>
@@ -15083,7 +15083,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FM35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FN35" s="5" t="s">
         <x:v>49</x:v>
@@ -15098,13 +15098,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FR35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FS35" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FT35" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FU35" s="5" t="s">
         <x:v>49</x:v>
@@ -15122,7 +15122,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FZ35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GA35" s="5" t="s">
         <x:v>49</x:v>
@@ -15155,10 +15155,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GK35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GL35" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GM35" s="5" t="s">
         <x:v>49</x:v>
@@ -15187,13 +15187,13 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B36" s="5">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C36" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E36" s="5" t="s">
         <x:v>49</x:v>
@@ -15217,19 +15217,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="L36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M36" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="O36" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="P36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Q36" s="5" t="s">
         <x:v>49</x:v>
@@ -15253,7 +15253,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="X36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Y36" s="5" t="s">
         <x:v>49</x:v>
@@ -15268,7 +15268,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AC36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AD36" s="5" t="s">
         <x:v>49</x:v>
@@ -15277,22 +15277,22 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AF36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AG36" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AH36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AI36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AJ36" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AK36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AL36" s="5" t="s">
         <x:v>49</x:v>
@@ -15370,7 +15370,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BK36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BL36" s="5" t="s">
         <x:v>49</x:v>
@@ -15394,7 +15394,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BS36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BT36" s="5" t="s">
         <x:v>49</x:v>
@@ -15409,13 +15409,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BX36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BY36" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BZ36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CA36" s="5" t="s">
         <x:v>49</x:v>
@@ -15454,7 +15454,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CM36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CN36" s="5" t="s">
         <x:v>49</x:v>
@@ -15472,7 +15472,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CS36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CT36" s="5" t="s">
         <x:v>49</x:v>
@@ -15481,7 +15481,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CV36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CW36" s="5" t="s">
         <x:v>49</x:v>
@@ -15544,7 +15544,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DQ36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DR36" s="5" t="s">
         <x:v>50</x:v>
@@ -15553,16 +15553,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DT36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DU36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DV36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DW36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DX36" s="5" t="s">
         <x:v>49</x:v>
@@ -15583,7 +15583,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ED36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EE36" s="5" t="s">
         <x:v>49</x:v>
@@ -15598,7 +15598,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EI36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EJ36" s="5" t="s">
         <x:v>49</x:v>
@@ -15667,19 +15667,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FF36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FG36" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FH36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FI36" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FJ36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FK36" s="5" t="s">
         <x:v>49</x:v>
@@ -15706,7 +15706,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FS36" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FT36" s="5" t="s">
         <x:v>49</x:v>
@@ -15733,7 +15733,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GB36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GC36" s="5" t="s">
         <x:v>49</x:v>
@@ -15745,7 +15745,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GF36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GG36" s="5" t="s">
         <x:v>49</x:v>
@@ -15766,7 +15766,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GM36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GN36" s="5" t="s">
         <x:v>49</x:v>
@@ -15778,13 +15778,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GQ36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GR36" s="5" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="GS36" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:201">
@@ -15795,7 +15795,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D37" s="5" t="s">
         <x:v>49</x:v>
@@ -15825,7 +15825,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="M37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N37" s="5" t="s">
         <x:v>49</x:v>
@@ -15855,13 +15855,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="W37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="X37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Y37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Z37" s="5" t="s">
         <x:v>49</x:v>
@@ -15891,7 +15891,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AI37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AJ37" s="5" t="s">
         <x:v>49</x:v>
@@ -15903,16 +15903,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AM37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AN37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AO37" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AP37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AQ37" s="5" t="s">
         <x:v>49</x:v>
@@ -15963,7 +15963,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BG37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BH37" s="5" t="s">
         <x:v>49</x:v>
@@ -15975,7 +15975,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="BK37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BL37" s="5" t="s">
         <x:v>49</x:v>
@@ -16032,7 +16032,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CD37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CE37" s="5" t="s">
         <x:v>49</x:v>
@@ -16050,7 +16050,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CJ37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CK37" s="5" t="s">
         <x:v>49</x:v>
@@ -16065,7 +16065,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CO37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CP37" s="5" t="s">
         <x:v>49</x:v>
@@ -16080,13 +16080,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CT37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CU37" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="CV37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CW37" s="5" t="s">
         <x:v>50</x:v>
@@ -16110,7 +16110,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DD37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DE37" s="5" t="s">
         <x:v>49</x:v>
@@ -16179,13 +16179,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EA37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EB37" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EC37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="ED37" s="5" t="s">
         <x:v>49</x:v>
@@ -16215,7 +16215,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EM37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EN37" s="5" t="s">
         <x:v>49</x:v>
@@ -16257,13 +16257,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FA37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FB37" s="5" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="FC37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FD37" s="5" t="s">
         <x:v>49</x:v>
@@ -16278,7 +16278,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FH37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FI37" s="5" t="s">
         <x:v>49</x:v>
@@ -16320,7 +16320,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="FV37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FW37" s="5" t="s">
         <x:v>49</x:v>
@@ -16341,13 +16341,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GC37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GD37" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="GE37" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GF37" s="5" t="s">
         <x:v>49</x:v>
@@ -16365,13 +16365,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GK37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GL37" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="GM37" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GN37" s="5" t="s">
         <x:v>49</x:v>
@@ -16400,22 +16400,22 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E38" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="F38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I38" s="5" t="s">
         <x:v>49</x:v>
@@ -16454,10 +16454,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="U38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="V38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="W38" s="5" t="s">
         <x:v>49</x:v>
@@ -16469,13 +16469,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Z38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AA38" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AB38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AC38" s="5" t="s">
         <x:v>49</x:v>
@@ -16559,19 +16559,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BD38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BE38" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BF38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BG38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BH38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BI38" s="5" t="s">
         <x:v>49</x:v>
@@ -16601,7 +16601,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BR38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BS38" s="5" t="s">
         <x:v>49</x:v>
@@ -16619,13 +16619,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BX38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BY38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BZ38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CA38" s="5" t="s">
         <x:v>49</x:v>
@@ -16643,13 +16643,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CF38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CG38" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="CH38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CI38" s="5" t="s">
         <x:v>49</x:v>
@@ -16682,7 +16682,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CS38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CT38" s="5" t="s">
         <x:v>49</x:v>
@@ -16742,7 +16742,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DM38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DN38" s="5" t="s">
         <x:v>49</x:v>
@@ -16760,7 +16760,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DS38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DT38" s="5" t="s">
         <x:v>49</x:v>
@@ -16808,7 +16808,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EI38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EJ38" s="5" t="s">
         <x:v>49</x:v>
@@ -16898,7 +16898,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FM38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FN38" s="5" t="s">
         <x:v>49</x:v>
@@ -16913,7 +16913,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FR38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FS38" s="5" t="s">
         <x:v>49</x:v>
@@ -16931,7 +16931,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FX38" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FY38" s="5" t="s">
         <x:v>49</x:v>
@@ -16943,7 +16943,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GB38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GC38" s="5" t="s">
         <x:v>49</x:v>
@@ -16967,7 +16967,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GJ38" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GK38" s="5" t="s">
         <x:v>49</x:v>
@@ -17002,7 +17002,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B39" s="5">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C39" s="5" t="s">
         <x:v>49</x:v>
@@ -17017,10 +17017,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I39" s="5" t="s">
         <x:v>49</x:v>
@@ -17029,7 +17029,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="K39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="L39" s="5" t="s">
         <x:v>49</x:v>
@@ -17155,7 +17155,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BA39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BB39" s="5" t="s">
         <x:v>49</x:v>
@@ -17191,10 +17191,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BM39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BN39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BO39" s="5" t="s">
         <x:v>49</x:v>
@@ -17206,13 +17206,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BR39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BS39" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BT39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BU39" s="5" t="s">
         <x:v>49</x:v>
@@ -17257,10 +17257,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CI39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CJ39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CK39" s="5" t="s">
         <x:v>49</x:v>
@@ -17320,13 +17320,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DD39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DE39" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DF39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DG39" s="5" t="s">
         <x:v>49</x:v>
@@ -17344,7 +17344,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DL39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DM39" s="5" t="s">
         <x:v>49</x:v>
@@ -17353,13 +17353,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DO39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DP39" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DQ39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DR39" s="5" t="s">
         <x:v>49</x:v>
@@ -17371,7 +17371,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DU39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DV39" s="5" t="s">
         <x:v>49</x:v>
@@ -17422,13 +17422,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EL39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EM39" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EN39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EO39" s="5" t="s">
         <x:v>49</x:v>
@@ -17452,7 +17452,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EV39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EW39" s="5" t="s">
         <x:v>49</x:v>
@@ -17473,10 +17473,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FC39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FD39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FE39" s="5" t="s">
         <x:v>49</x:v>
@@ -17497,7 +17497,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FK39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FL39" s="5" t="s">
         <x:v>49</x:v>
@@ -17518,13 +17518,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FR39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FS39" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FT39" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FU39" s="5" t="s">
         <x:v>49</x:v>
@@ -17596,7 +17596,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GR39" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GS39" s="5" t="s">
         <x:v>49</x:v>
@@ -17610,7 +17610,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D40" s="5" t="s">
         <x:v>49</x:v>
@@ -17619,10 +17619,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H40" s="5" t="s">
         <x:v>49</x:v>
@@ -17631,13 +17631,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="J40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K40" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="L40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M40" s="5" t="s">
         <x:v>49</x:v>
@@ -17682,10 +17682,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AA40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AB40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AC40" s="5" t="s">
         <x:v>49</x:v>
@@ -17697,7 +17697,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AF40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AG40" s="5" t="s">
         <x:v>49</x:v>
@@ -17709,7 +17709,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AJ40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AK40" s="5" t="s">
         <x:v>49</x:v>
@@ -17721,7 +17721,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AN40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AO40" s="5" t="s">
         <x:v>49</x:v>
@@ -17760,13 +17760,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BA40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BB40" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BC40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BD40" s="5" t="s">
         <x:v>49</x:v>
@@ -17790,7 +17790,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BK40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BL40" s="5" t="s">
         <x:v>49</x:v>
@@ -17799,7 +17799,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BN40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BO40" s="5" t="s">
         <x:v>49</x:v>
@@ -17808,7 +17808,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BQ40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BR40" s="5" t="s">
         <x:v>49</x:v>
@@ -17829,7 +17829,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BX40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BY40" s="5" t="s">
         <x:v>49</x:v>
@@ -17859,13 +17859,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CH40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CI40" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="CJ40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CK40" s="5" t="s">
         <x:v>49</x:v>
@@ -17898,10 +17898,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CU40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CV40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CW40" s="5" t="s">
         <x:v>50</x:v>
@@ -17952,13 +17952,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DM40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DN40" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DO40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DP40" s="5" t="s">
         <x:v>49</x:v>
@@ -17979,7 +17979,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DV40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DW40" s="5" t="s">
         <x:v>49</x:v>
@@ -17988,7 +17988,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DY40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DZ40" s="5" t="s">
         <x:v>49</x:v>
@@ -18003,7 +18003,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ED40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EE40" s="5" t="s">
         <x:v>49</x:v>
@@ -18066,19 +18066,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EY40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EZ40" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FA40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FB40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FC40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FD40" s="5" t="s">
         <x:v>49</x:v>
@@ -18087,7 +18087,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FF40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FG40" s="5" t="s">
         <x:v>49</x:v>
@@ -18105,7 +18105,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FL40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FM40" s="5" t="s">
         <x:v>49</x:v>
@@ -18132,7 +18132,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FU40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FV40" s="5" t="s">
         <x:v>49</x:v>
@@ -18150,7 +18150,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GA40" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GB40" s="5" t="s">
         <x:v>49</x:v>
@@ -18162,7 +18162,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GE40" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GF40" s="5" t="s">
         <x:v>49</x:v>
@@ -18218,13 +18218,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E41" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="F41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G41" s="5" t="s">
         <x:v>49</x:v>
@@ -18236,13 +18236,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="J41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K41" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="L41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M41" s="5" t="s">
         <x:v>49</x:v>
@@ -18254,10 +18254,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="P41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Q41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="R41" s="5" t="s">
         <x:v>49</x:v>
@@ -18359,7 +18359,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AY41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AZ41" s="5" t="s">
         <x:v>49</x:v>
@@ -18383,7 +18383,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BG41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BH41" s="5" t="s">
         <x:v>49</x:v>
@@ -18398,13 +18398,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BL41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BM41" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BN41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BO41" s="5" t="s">
         <x:v>49</x:v>
@@ -18443,7 +18443,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CA41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CB41" s="5" t="s">
         <x:v>49</x:v>
@@ -18500,10 +18500,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CT41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CU41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CV41" s="5" t="s">
         <x:v>49</x:v>
@@ -18518,7 +18518,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CZ41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DA41" s="5" t="s">
         <x:v>49</x:v>
@@ -18536,10 +18536,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DF41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DG41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DH41" s="5" t="s">
         <x:v>49</x:v>
@@ -18572,16 +18572,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DR41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DS41" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DT41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DU41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DV41" s="5" t="s">
         <x:v>49</x:v>
@@ -18599,7 +18599,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EA41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EB41" s="5" t="s">
         <x:v>50</x:v>
@@ -18608,7 +18608,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ED41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EE41" s="5" t="s">
         <x:v>49</x:v>
@@ -18629,13 +18629,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EK41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EL41" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EM41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EN41" s="5" t="s">
         <x:v>49</x:v>
@@ -18677,7 +18677,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FA41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FB41" s="5" t="s">
         <x:v>49</x:v>
@@ -18695,10 +18695,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FG41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FH41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FI41" s="5" t="s">
         <x:v>49</x:v>
@@ -18749,7 +18749,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FY41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FZ41" s="5" t="s">
         <x:v>49</x:v>
@@ -18758,7 +18758,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GB41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GC41" s="5" t="s">
         <x:v>49</x:v>
@@ -18767,7 +18767,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GE41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GF41" s="5" t="s">
         <x:v>49</x:v>
@@ -18776,13 +18776,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GH41" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GI41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GJ41" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GK41" s="5" t="s">
         <x:v>49</x:v>
@@ -18817,7 +18817,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B42" s="5">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C42" s="5" t="s">
         <x:v>49</x:v>
@@ -18829,13 +18829,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G42" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="H42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I42" s="5" t="s">
         <x:v>49</x:v>
@@ -18850,7 +18850,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="M42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N42" s="5" t="s">
         <x:v>49</x:v>
@@ -18889,7 +18889,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Z42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AA42" s="5" t="s">
         <x:v>49</x:v>
@@ -18967,7 +18967,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AZ42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BA42" s="5" t="s">
         <x:v>49</x:v>
@@ -18988,7 +18988,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BG42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BH42" s="5" t="s">
         <x:v>49</x:v>
@@ -19033,7 +19033,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BV42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BW42" s="5" t="s">
         <x:v>49</x:v>
@@ -19054,7 +19054,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CC42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CD42" s="5" t="s">
         <x:v>49</x:v>
@@ -19117,10 +19117,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CX42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CY42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CZ42" s="5" t="s">
         <x:v>49</x:v>
@@ -19135,7 +19135,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DD42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DE42" s="5" t="s">
         <x:v>50</x:v>
@@ -19162,7 +19162,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DM42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DN42" s="5" t="s">
         <x:v>49</x:v>
@@ -19177,7 +19177,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DR42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DS42" s="5" t="s">
         <x:v>49</x:v>
@@ -19210,7 +19210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EC42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="ED42" s="5" t="s">
         <x:v>49</x:v>
@@ -19231,7 +19231,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EJ42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EK42" s="5" t="s">
         <x:v>49</x:v>
@@ -19243,7 +19243,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EN42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EO42" s="5" t="s">
         <x:v>49</x:v>
@@ -19297,7 +19297,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FF42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FG42" s="5" t="s">
         <x:v>49</x:v>
@@ -19306,7 +19306,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FI42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FJ42" s="5" t="s">
         <x:v>49</x:v>
@@ -19315,13 +19315,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FL42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FM42" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FN42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FO42" s="5" t="s">
         <x:v>49</x:v>
@@ -19333,7 +19333,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FR42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FS42" s="5" t="s">
         <x:v>49</x:v>
@@ -19369,7 +19369,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GD42" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GE42" s="5" t="s">
         <x:v>49</x:v>
@@ -19381,7 +19381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GH42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GI42" s="5" t="s">
         <x:v>49</x:v>
@@ -19399,10 +19399,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GN42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GO42" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GP42" s="5" t="s">
         <x:v>49</x:v>
@@ -19449,7 +19449,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="K43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="L43" s="5" t="s">
         <x:v>49</x:v>
@@ -19479,13 +19479,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="U43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="V43" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="W43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="X43" s="5" t="s">
         <x:v>49</x:v>
@@ -19497,22 +19497,22 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AA43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AB43" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AC43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AD43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AE43" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AF43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AG43" s="5" t="s">
         <x:v>49</x:v>
@@ -19530,7 +19530,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AL43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AM43" s="5" t="s">
         <x:v>49</x:v>
@@ -19572,7 +19572,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AZ43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BA43" s="5" t="s">
         <x:v>49</x:v>
@@ -19605,7 +19605,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BK43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BL43" s="5" t="s">
         <x:v>49</x:v>
@@ -19623,7 +19623,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="BQ43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BR43" s="5" t="s">
         <x:v>49</x:v>
@@ -19659,7 +19659,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CC43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CD43" s="5" t="s">
         <x:v>49</x:v>
@@ -19689,7 +19689,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CM43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CN43" s="5" t="s">
         <x:v>49</x:v>
@@ -19731,7 +19731,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DA43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DB43" s="5" t="s">
         <x:v>49</x:v>
@@ -19785,10 +19785,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DS43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DT43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DU43" s="5" t="s">
         <x:v>49</x:v>
@@ -19797,7 +19797,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DW43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DX43" s="5" t="s">
         <x:v>49</x:v>
@@ -19812,7 +19812,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EB43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EC43" s="5" t="s">
         <x:v>49</x:v>
@@ -19821,7 +19821,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EE43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EF43" s="5" t="s">
         <x:v>49</x:v>
@@ -19857,31 +19857,31 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EQ43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="ER43" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="ES43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="ET43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EU43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EV43" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EW43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EX43" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="EY43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EZ43" s="5" t="s">
         <x:v>49</x:v>
@@ -19944,13 +19944,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FT43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FU43" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="FV43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FW43" s="5" t="s">
         <x:v>50</x:v>
@@ -20004,7 +20004,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GN43" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GO43" s="5" t="s">
         <x:v>49</x:v>
@@ -20027,7 +20027,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B44" s="5">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C44" s="5" t="s">
         <x:v>49</x:v>
@@ -20039,7 +20039,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G44" s="5" t="s">
         <x:v>49</x:v>
@@ -20051,7 +20051,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="J44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K44" s="5" t="s">
         <x:v>49</x:v>
@@ -20060,10 +20060,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="M44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="O44" s="5" t="s">
         <x:v>49</x:v>
@@ -20075,7 +20075,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="R44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="S44" s="5" t="s">
         <x:v>49</x:v>
@@ -20114,7 +20114,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AE44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AF44" s="5" t="s">
         <x:v>49</x:v>
@@ -20138,10 +20138,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AM44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AN44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AO44" s="5" t="s">
         <x:v>49</x:v>
@@ -20204,7 +20204,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BI44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BJ44" s="5" t="s">
         <x:v>49</x:v>
@@ -20228,7 +20228,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="BQ44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BR44" s="5" t="s">
         <x:v>49</x:v>
@@ -20330,7 +20330,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CY44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CZ44" s="5" t="s">
         <x:v>49</x:v>
@@ -20348,7 +20348,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DE44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DF44" s="5" t="s">
         <x:v>50</x:v>
@@ -20366,7 +20366,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DK44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DL44" s="5" t="s">
         <x:v>49</x:v>
@@ -20378,13 +20378,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DO44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DP44" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DQ44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DR44" s="5" t="s">
         <x:v>49</x:v>
@@ -20402,7 +20402,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DW44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="DX44" s="5" t="s">
         <x:v>49</x:v>
@@ -20468,7 +20468,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="ES44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="ET44" s="5" t="s">
         <x:v>49</x:v>
@@ -20477,7 +20477,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="EV44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="EW44" s="5" t="s">
         <x:v>49</x:v>
@@ -20501,7 +20501,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FD44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FE44" s="5" t="s">
         <x:v>49</x:v>
@@ -20519,7 +20519,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FJ44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FK44" s="5" t="s">
         <x:v>49</x:v>
@@ -20546,7 +20546,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FS44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FT44" s="5" t="s">
         <x:v>49</x:v>
@@ -20558,7 +20558,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FW44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FX44" s="5" t="s">
         <x:v>49</x:v>
@@ -20579,7 +20579,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="GD44" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GE44" s="5" t="s">
         <x:v>49</x:v>
@@ -20606,7 +20606,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GM44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GN44" s="5" t="s">
         <x:v>49</x:v>
@@ -20621,7 +20621,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GR44" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GS44" s="5" t="s">
         <x:v>49</x:v>
@@ -20632,7 +20632,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B45" s="5">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C45" s="5" t="s">
         <x:v>49</x:v>
@@ -20656,7 +20656,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="J45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K45" s="5" t="s">
         <x:v>49</x:v>
@@ -20668,7 +20668,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="O45" s="5" t="s">
         <x:v>49</x:v>
@@ -20689,7 +20689,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="U45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="V45" s="5" t="s">
         <x:v>49</x:v>
@@ -20737,16 +20737,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AK45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AL45" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="AM45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AN45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AO45" s="5" t="s">
         <x:v>49</x:v>
@@ -20770,7 +20770,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AV45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AW45" s="5" t="s">
         <x:v>49</x:v>
@@ -20779,7 +20779,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AY45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AZ45" s="5" t="s">
         <x:v>49</x:v>
@@ -20800,7 +20800,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BF45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BG45" s="5" t="s">
         <x:v>49</x:v>
@@ -20836,7 +20836,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BR45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BS45" s="5" t="s">
         <x:v>49</x:v>
@@ -20860,7 +20860,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BZ45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CA45" s="5" t="s">
         <x:v>49</x:v>
@@ -20914,7 +20914,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CR45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CS45" s="5" t="s">
         <x:v>49</x:v>
@@ -20965,16 +20965,16 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="DI45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DJ45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DK45" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="DL45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DM45" s="5" t="s">
         <x:v>49</x:v>
@@ -21007,7 +21007,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="DW45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DX45" s="5" t="s">
         <x:v>49</x:v>
@@ -21046,7 +21046,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="EJ45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="EK45" s="5" t="s">
         <x:v>49</x:v>
@@ -21112,7 +21112,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FF45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FG45" s="5" t="s">
         <x:v>50</x:v>
@@ -21121,7 +21121,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FI45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FJ45" s="5" t="s">
         <x:v>49</x:v>
@@ -21157,7 +21157,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FU45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FV45" s="5" t="s">
         <x:v>49</x:v>
@@ -21175,7 +21175,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GA45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GB45" s="5" t="s">
         <x:v>49</x:v>
@@ -21187,7 +21187,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GE45" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="GF45" s="5" t="s">
         <x:v>50</x:v>
@@ -21211,7 +21211,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GM45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GN45" s="5" t="s">
         <x:v>49</x:v>
@@ -21223,10 +21223,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GQ45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GR45" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GS45" s="5" t="s">
         <x:v>49</x:v>
@@ -21237,10 +21237,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B46" s="5">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D46" s="5" t="s">
         <x:v>49</x:v>
@@ -21264,13 +21264,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="K46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="L46" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="M46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N46" s="5" t="s">
         <x:v>49</x:v>
@@ -21282,13 +21282,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Q46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="R46" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="S46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="T46" s="5" t="s">
         <x:v>49</x:v>
@@ -21306,7 +21306,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="Y46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Z46" s="5" t="s">
         <x:v>49</x:v>
@@ -21318,13 +21318,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AC46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AD46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AE46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AF46" s="5" t="s">
         <x:v>49</x:v>
@@ -21333,7 +21333,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="AH46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AI46" s="5" t="s">
         <x:v>49</x:v>
@@ -21390,10 +21390,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BA46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BB46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BC46" s="5" t="s">
         <x:v>49</x:v>
@@ -21411,16 +21411,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BH46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BI46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BJ46" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="BK46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BL46" s="5" t="s">
         <x:v>49</x:v>
@@ -21459,10 +21459,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="BX46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="BY46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="BZ46" s="5" t="s">
         <x:v>49</x:v>
@@ -21492,7 +21492,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CI46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="CJ46" s="5" t="s">
         <x:v>49</x:v>
@@ -21504,7 +21504,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CM46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CN46" s="5" t="s">
         <x:v>49</x:v>
@@ -21519,7 +21519,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="CR46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="CS46" s="5" t="s">
         <x:v>49</x:v>
@@ -21570,10 +21570,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="DI46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DJ46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="DK46" s="5" t="s">
         <x:v>49</x:v>
@@ -21717,7 +21717,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FF46" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FG46" s="5" t="s">
         <x:v>50</x:v>
@@ -21741,7 +21741,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FN46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FO46" s="5" t="s">
         <x:v>49</x:v>
@@ -21750,7 +21750,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="FQ46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="FR46" s="5" t="s">
         <x:v>49</x:v>
@@ -21816,7 +21816,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="GM46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GN46" s="5" t="s">
         <x:v>49</x:v>
@@ -21831,7 +21831,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="GR46" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="GS46" s="5" t="s">
         <x:v>49</x:v>
